--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="5168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5984" uniqueCount="5168">
   <si>
     <t>year</t>
   </si>
@@ -15580,25 +15580,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4896</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4897</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>4908</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>4909</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>4910</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>4911</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>4912</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -15606,16 +15606,16 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>4898</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D2">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E2">
-        <v>0.98968696594238281</v>
+        <v>0.98911607265472412</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15627,16 +15627,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4899</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D3">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E3">
-        <v>0.9915841817855835</v>
+        <v>0.99111831188201904</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -15648,16 +15648,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4900</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D4">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E4">
-        <v>0.99282854795455933</v>
+        <v>0.99243158102035522</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -15669,16 +15669,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4901</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D5">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E5">
-        <v>0.99600136280059814</v>
+        <v>0.99577999114990234</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -15690,16 +15690,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4902</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D6">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E6">
-        <v>0.99771475791931152</v>
+        <v>0.99758821725845337</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -15711,16 +15711,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4903</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D7">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E7">
-        <v>0.99881017208099365</v>
+        <v>0.99874430894851685</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -15732,16 +15732,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4904</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D8">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E8">
-        <v>0.99942076206207275</v>
+        <v>0.99938875436782837</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -15753,16 +15753,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4905</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D9">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E9">
-        <v>0.99954515695571899</v>
+        <v>0.999519944190979</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -15774,16 +15774,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4906</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D10">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E10">
-        <v>0.99988025426864624</v>
+        <v>0.99987363815307617</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -15795,16 +15795,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4907</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D11">
-        <v>417.84359741210938</v>
+        <v>440.97274780273438</v>
       </c>
       <c r="E11">
-        <v>0.999950110912323</v>
+        <v>0.99994730949401855</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -15824,25 +15824,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5049</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5050</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5061</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5062</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5063</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5064</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5065</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -15850,16 +15850,16 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>5051</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D2">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E2">
-        <v>0.96162700653076172</v>
+        <v>0.96091145277023315</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15871,16 +15871,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5052</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D3">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E3">
-        <v>0.97611773014068604</v>
+        <v>0.97567236423492432</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -15892,16 +15892,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5053</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D4">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E4">
-        <v>0.98274970054626465</v>
+        <v>0.98242807388305664</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -15913,16 +15913,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5054</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D5">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E5">
-        <v>0.99257415533065796</v>
+        <v>0.99243569374084473</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -15934,16 +15934,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5055</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D6">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E6">
-        <v>0.99619519710540771</v>
+        <v>0.996124267578125</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -15955,16 +15955,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5056</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D7">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E7">
-        <v>0.99812549352645874</v>
+        <v>0.99809056520462036</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -15976,16 +15976,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5057</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D8">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E8">
-        <v>0.99908632040023804</v>
+        <v>0.99906927347183228</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -15997,16 +15997,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5058</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D9">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E9">
-        <v>0.99927783012390137</v>
+        <v>0.99926435947418213</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -16018,16 +16018,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5059</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D10">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E10">
-        <v>0.99980652332305908</v>
+        <v>0.99980288743972778</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -16039,16 +16039,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5060</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D11">
-        <v>804.94512939453125</v>
+        <v>819.95513916015625</v>
       </c>
       <c r="E11">
-        <v>0.99991345405578613</v>
+        <v>0.9999118447303772</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -16068,25 +16068,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5066</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5067</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5078</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5079</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5080</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5081</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5082</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -16094,16 +16094,16 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>5068</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D2">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E2">
-        <v>0.96537399291992188</v>
+        <v>0.964607834815979</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16115,16 +16115,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5069</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D3">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E3">
-        <v>0.97697186470031738</v>
+        <v>0.97646230459213257</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -16136,16 +16136,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5070</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D4">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E4">
-        <v>0.98337596654891968</v>
+        <v>0.98300808668136597</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -16157,16 +16157,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5071</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D5">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E5">
-        <v>0.99208176136016846</v>
+        <v>0.99190658330917358</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -16178,16 +16178,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5072</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D6">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E6">
-        <v>0.99584800004959106</v>
+        <v>0.99575608968734741</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -16199,16 +16199,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5073</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D7">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E7">
-        <v>0.9979211688041687</v>
+        <v>0.99787521362304688</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -16220,16 +16220,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5074</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D8">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E8">
-        <v>0.99897235631942749</v>
+        <v>0.99894964694976807</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -16241,16 +16241,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5075</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D9">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E9">
-        <v>0.99919235706329346</v>
+        <v>0.99917453527450562</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -16262,16 +16262,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5076</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D10">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E10">
-        <v>0.99978703260421753</v>
+        <v>0.99978232383728027</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -16283,16 +16283,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5077</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D11">
-        <v>925.19647216796875</v>
+        <v>945.66876220703125</v>
       </c>
       <c r="E11">
-        <v>0.99989873170852661</v>
+        <v>0.99989646673202515</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -16312,25 +16312,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5083</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5084</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5095</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5096</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5097</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5098</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5099</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -16338,16 +16338,16 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>5085</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D2">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E2">
-        <v>0.96456509828567505</v>
+        <v>0.96369034051895142</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16359,16 +16359,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5086</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D3">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E3">
-        <v>0.9761044979095459</v>
+        <v>0.97551459074020386</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -16380,16 +16380,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5087</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D4">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E4">
-        <v>0.9830135703086853</v>
+        <v>0.98259425163269043</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -16401,16 +16401,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5088</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D5">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E5">
-        <v>0.99191880226135254</v>
+        <v>0.99171930551528931</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -16422,16 +16422,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5089</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D6">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E6">
-        <v>0.99577611684799194</v>
+        <v>0.99567180871963501</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -16443,16 +16443,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5090</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D7">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E7">
-        <v>0.99790823459625244</v>
+        <v>0.99785661697387695</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -16464,16 +16464,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5091</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D8">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E8">
-        <v>0.99895763397216797</v>
+        <v>0.998931884765625</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -16485,16 +16485,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5092</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D9">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E9">
-        <v>0.99917829036712646</v>
+        <v>0.99915796518325806</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -16506,16 +16506,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5093</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D10">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E10">
-        <v>0.99979096651077271</v>
+        <v>0.99978578090667725</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -16527,16 +16527,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5094</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D11">
-        <v>903.8505859375</v>
+        <v>926.16314697265625</v>
       </c>
       <c r="E11">
-        <v>0.99990111589431763</v>
+        <v>0.99989867210388184</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -16556,25 +16556,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5100</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5101</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5112</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5113</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5114</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5115</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5116</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -16582,16 +16582,16 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>5102</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D2">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E2">
-        <v>0.96340495347976685</v>
+        <v>0.96198904514312744</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16603,16 +16603,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5103</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D3">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E3">
-        <v>0.97532188892364502</v>
+        <v>0.97436702251434326</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -16624,16 +16624,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5104</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D4">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E4">
-        <v>0.9827074408531189</v>
+        <v>0.98203831911087036</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -16645,16 +16645,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5105</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D5">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E5">
-        <v>0.9919314980506897</v>
+        <v>0.9916192889213562</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -16666,16 +16666,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5106</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D6">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E6">
-        <v>0.99582606554031372</v>
+        <v>0.99566459655761719</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -16687,16 +16687,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5107</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D7">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E7">
-        <v>0.99796217679977417</v>
+        <v>0.99788331985473633</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -16708,16 +16708,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5108</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D8">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E8">
-        <v>0.99899286031723022</v>
+        <v>0.99895393848419189</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -16729,16 +16729,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5109</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D9">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E9">
-        <v>0.99920392036437988</v>
+        <v>0.99917310476303101</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -16750,16 +16750,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5110</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D10">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E10">
-        <v>0.99980252981185913</v>
+        <v>0.99979490041732788</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -16771,16 +16771,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5111</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D11">
-        <v>886.7542724609375</v>
+        <v>921.06500244140625</v>
       </c>
       <c r="E11">
-        <v>0.99990314245223999</v>
+        <v>0.99989938735961914</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -16800,25 +16800,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5117</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5118</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5129</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5130</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5131</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5132</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5133</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -16826,16 +16826,16 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>5119</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D2">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E2">
-        <v>0.96233618259429932</v>
+        <v>0.96065366268157959</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16847,16 +16847,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5120</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D3">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E3">
-        <v>0.97456932067871094</v>
+        <v>0.97343325614929199</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -16868,16 +16868,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5121</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D4">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E4">
-        <v>0.98220145702362061</v>
+        <v>0.98140639066696167</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -16889,16 +16889,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5122</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D5">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E5">
-        <v>0.99171847105026245</v>
+        <v>0.9913485050201416</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -16910,16 +16910,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5123</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D6">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E6">
-        <v>0.9957282543182373</v>
+        <v>0.99553745985031128</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -16931,16 +16931,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5124</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D7">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E7">
-        <v>0.99790662527084351</v>
+        <v>0.99781310558319092</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -16952,16 +16952,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5125</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D8">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E8">
-        <v>0.99898421764373779</v>
+        <v>0.99893879890441895</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -16973,16 +16973,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5126</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D9">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E9">
-        <v>0.99921190738677979</v>
+        <v>0.99917668104171753</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -16994,16 +16994,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5127</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D10">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E10">
-        <v>0.99980556964874268</v>
+        <v>0.99979686737060547</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -17015,16 +17015,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5128</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D11">
-        <v>868.0687255859375</v>
+        <v>906.8468017578125</v>
       </c>
       <c r="E11">
-        <v>0.99990791082382202</v>
+        <v>0.99990379810333252</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -17044,25 +17044,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5134</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5135</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5146</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5147</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5148</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5149</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5150</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -17070,16 +17070,16 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>5136</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D2">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E2">
-        <v>0.96254366636276245</v>
+        <v>0.96060091257095337</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -17091,16 +17091,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5137</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D3">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E3">
-        <v>0.97347623109817505</v>
+        <v>0.97210055589675903</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -17112,16 +17112,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5138</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D4">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E4">
-        <v>0.98160725831985474</v>
+        <v>0.98065328598022461</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -17133,16 +17133,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5139</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D5">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E5">
-        <v>0.99162536859512329</v>
+        <v>0.99119096994400024</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -17154,16 +17154,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5140</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D6">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E6">
-        <v>0.99565821886062622</v>
+        <v>0.99543303251266479</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -17175,16 +17175,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5141</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D7">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E7">
-        <v>0.99786674976348877</v>
+        <v>0.99775612354278564</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -17196,16 +17196,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5142</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D8">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E8">
-        <v>0.99897676706314087</v>
+        <v>0.998923659324646</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -17217,16 +17217,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5143</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D9">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E9">
-        <v>0.99920535087585449</v>
+        <v>0.9991641640663147</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -17238,16 +17238,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5144</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D10">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E10">
-        <v>0.99980127811431885</v>
+        <v>0.99979096651077271</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -17259,16 +17259,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5145</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D11">
-        <v>874.98760986328125</v>
+        <v>920.370849609375</v>
       </c>
       <c r="E11">
-        <v>0.99991029500961304</v>
+        <v>0.99990564584732056</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -17317,13 +17317,13 @@
         <v>5153</v>
       </c>
       <c r="C2">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D2">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E2">
-        <v>0.96154534816741943</v>
+        <v>0.95926582813262939</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -17335,16 +17335,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5154</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D3">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E3">
-        <v>0.97261548042297363</v>
+        <v>0.97099220752716064</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -17356,16 +17356,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5155</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D4">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E4">
-        <v>0.98093581199645996</v>
+        <v>0.97980570793151855</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -17377,16 +17377,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5156</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D5">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E5">
-        <v>0.99144876003265381</v>
+        <v>0.99094188213348389</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -17398,16 +17398,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5157</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D6">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E6">
-        <v>0.99556845426559448</v>
+        <v>0.99530571699142456</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -17419,16 +17419,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5158</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D7">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E7">
-        <v>0.99782294034957886</v>
+        <v>0.99769389629364014</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -17440,16 +17440,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5159</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D8">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E8">
-        <v>0.99894332885742188</v>
+        <v>0.99888068437576294</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -17461,16 +17461,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D9">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E9">
-        <v>0.99917775392532349</v>
+        <v>0.99912899732589722</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -17482,16 +17482,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5161</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D10">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E10">
-        <v>0.99979609251022339</v>
+        <v>0.99978399276733398</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -17506,13 +17506,13 @@
         <v>5162</v>
       </c>
       <c r="C11">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D11">
-        <v>900.1053466796875</v>
+        <v>953.46197509765625</v>
       </c>
       <c r="E11">
-        <v>0.99991142749786377</v>
+        <v>0.99990618228912354</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -17532,25 +17532,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4913</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4914</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>4925</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>4926</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>4927</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>4928</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>4929</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -17558,16 +17558,16 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>4915</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D2">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E2">
-        <v>0.98777025938034058</v>
+        <v>0.98682636022567749</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -17579,16 +17579,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4916</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D3">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E3">
-        <v>0.99077147245407104</v>
+        <v>0.9900592565536499</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -17600,16 +17600,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4917</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D4">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E4">
-        <v>0.99241352081298828</v>
+        <v>0.99182802438735962</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -17621,16 +17621,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4918</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D5">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E5">
-        <v>0.99586164951324463</v>
+        <v>0.99554228782653809</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -17642,16 +17642,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4919</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D6">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E6">
-        <v>0.99769407510757446</v>
+        <v>0.99751609563827515</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -17663,16 +17663,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4920</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D7">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E7">
-        <v>0.99879151582717896</v>
+        <v>0.99869823455810547</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -17684,16 +17684,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4921</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D8">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E8">
-        <v>0.99939566850662231</v>
+        <v>0.99934905767440796</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -17705,16 +17705,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4922</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D9">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E9">
-        <v>0.99951887130737305</v>
+        <v>0.99948173761367798</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -17726,16 +17726,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4923</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D10">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E10">
-        <v>0.99987351894378662</v>
+        <v>0.99986380338668823</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -17747,16 +17747,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4924</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D11">
-        <v>433.99203491210938</v>
+        <v>467.48733520507812</v>
       </c>
       <c r="E11">
-        <v>0.99995148181915283</v>
+        <v>0.99994772672653198</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -17776,25 +17776,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4930</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4931</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>4942</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>4943</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>4944</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>4945</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>4946</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -17802,16 +17802,16 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>4932</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D2">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E2">
-        <v>0.98474276065826416</v>
+        <v>0.98340803384780884</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -17823,16 +17823,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4933</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D3">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E3">
-        <v>0.98919922113418579</v>
+        <v>0.98825430870056152</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -17844,16 +17844,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4934</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D4">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E4">
-        <v>0.99127310514450073</v>
+        <v>0.99050968885421753</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -17865,16 +17865,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4935</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D5">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E5">
-        <v>0.995444655418396</v>
+        <v>0.99504613876342773</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -17886,16 +17886,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4936</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D6">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E6">
-        <v>0.99749308824539185</v>
+        <v>0.99727374315261841</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -17907,16 +17907,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4937</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D7">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E7">
-        <v>0.99868100881576538</v>
+        <v>0.99856561422348022</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -17928,16 +17928,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4938</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D8">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E8">
-        <v>0.99933904409408569</v>
+        <v>0.99928122758865356</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -17949,16 +17949,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4939</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D9">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E9">
-        <v>0.99947637319564819</v>
+        <v>0.99943053722381592</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -17970,16 +17970,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4940</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D10">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E10">
-        <v>0.99985885620117188</v>
+        <v>0.99984651803970337</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -17991,16 +17991,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4941</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D11">
-        <v>479.80465698242188</v>
+        <v>521.77850341796875</v>
       </c>
       <c r="E11">
-        <v>0.99994319677352905</v>
+        <v>0.99993818998336792</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -18020,25 +18020,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4947</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4948</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>4959</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>4960</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>4961</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>4962</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>4963</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -18046,16 +18046,16 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>4949</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D2">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E2">
-        <v>0.98237311840057373</v>
+        <v>0.9804912805557251</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -18067,16 +18067,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4950</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D3">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E3">
-        <v>0.98794776201248169</v>
+        <v>0.98666107654571533</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -18088,16 +18088,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4951</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D4">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E4">
-        <v>0.99039417505264282</v>
+        <v>0.98936867713928223</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -18109,16 +18109,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4952</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D5">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E5">
-        <v>0.99513149261474609</v>
+        <v>0.99461174011230469</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -18130,16 +18130,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4953</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D6">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E6">
-        <v>0.99734842777252197</v>
+        <v>0.99706530570983887</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -18151,16 +18151,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4954</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D7">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E7">
-        <v>0.99862462282180786</v>
+        <v>0.99847781658172607</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -18172,16 +18172,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4955</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D8">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E8">
-        <v>0.99929749965667725</v>
+        <v>0.99922245740890503</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -18193,16 +18193,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4956</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D9">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E9">
-        <v>0.99944537878036499</v>
+        <v>0.99938619136810303</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -18214,16 +18214,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4957</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D10">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E10">
-        <v>0.99985253810882568</v>
+        <v>0.99983680248260498</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -18235,16 +18235,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4958</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D11">
-        <v>514.537353515625</v>
+        <v>569.46942138671875</v>
       </c>
       <c r="E11">
-        <v>0.9999358057975769</v>
+        <v>0.99992901086807251</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -18264,25 +18264,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4964</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4965</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>4976</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>4977</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>4978</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>4979</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>4980</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -18290,16 +18290,16 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>4966</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D2">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E2">
-        <v>0.98005485534667969</v>
+        <v>0.97755664587020874</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -18311,16 +18311,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4967</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D3">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E3">
-        <v>0.98677670955657959</v>
+        <v>0.98512041568756104</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -18332,16 +18332,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4968</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D4">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E4">
-        <v>0.98959195613861084</v>
+        <v>0.9882882833480835</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -18353,16 +18353,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4969</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D5">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E5">
-        <v>0.99489134550094604</v>
+        <v>0.99425148963928223</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -18374,16 +18374,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4970</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D6">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E6">
-        <v>0.99724012613296509</v>
+        <v>0.99689441919326782</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -18395,16 +18395,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4971</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D7">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E7">
-        <v>0.99855673313140869</v>
+        <v>0.99837595224380493</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -18416,16 +18416,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4972</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D8">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E8">
-        <v>0.99926280975341797</v>
+        <v>0.99917048215866089</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -18437,16 +18437,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4973</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D9">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E9">
-        <v>0.99940609931945801</v>
+        <v>0.99933171272277832</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -18458,16 +18458,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4974</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D10">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E10">
-        <v>0.99983924627304077</v>
+        <v>0.99981915950775146</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -18479,16 +18479,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4975</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D11">
-        <v>561.20526123046875</v>
+        <v>631.49896240234375</v>
       </c>
       <c r="E11">
-        <v>0.99993312358856201</v>
+        <v>0.99992471933364868</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -18508,25 +18508,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4981</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4982</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>4993</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>4994</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>4995</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>4996</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>4997</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -18534,16 +18534,16 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>4983</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D2">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E2">
-        <v>0.97580069303512573</v>
+        <v>0.97234135866165161</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -18555,16 +18555,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4984</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D3">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E3">
-        <v>0.98443812131881714</v>
+        <v>0.98221355676651001</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -18576,16 +18576,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4985</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D4">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E4">
-        <v>0.98801910877227783</v>
+        <v>0.98630636930465698</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -18597,16 +18597,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4986</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D5">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E5">
-        <v>0.9944261908531189</v>
+        <v>0.99362939596176147</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -18618,16 +18618,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4987</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D6">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E6">
-        <v>0.99708890914916992</v>
+        <v>0.99667274951934814</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -18639,16 +18639,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4988</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D7">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E7">
-        <v>0.99851399660110474</v>
+        <v>0.99830156564712524</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -18660,16 +18660,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4989</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D8">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E8">
-        <v>0.9992714524269104</v>
+        <v>0.99916726350784302</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -18681,16 +18681,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4990</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D9">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E9">
-        <v>0.99942612648010254</v>
+        <v>0.9993441104888916</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -18702,16 +18702,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4991</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D10">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E10">
-        <v>0.99984729290008545</v>
+        <v>0.99982547760009766</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -18723,16 +18723,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4992</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D11">
-        <v>583.283935546875</v>
+        <v>666.664794921875</v>
       </c>
       <c r="E11">
-        <v>0.9999348521232605</v>
+        <v>0.99992555379867554</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -18752,25 +18752,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4998</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4999</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5010</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5011</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5012</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5013</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5014</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -18778,16 +18778,16 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>5000</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D2">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E2">
-        <v>0.97361552715301514</v>
+        <v>0.96931672096252441</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -18799,16 +18799,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5001</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D3">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E3">
-        <v>0.98325139284133911</v>
+        <v>0.9805225133895874</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -18820,16 +18820,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5002</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D4">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E4">
-        <v>0.98719394207000732</v>
+        <v>0.985107421875</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -18841,16 +18841,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5003</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D5">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E5">
-        <v>0.99408161640167236</v>
+        <v>0.99311733245849609</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -18862,16 +18862,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5004</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D6">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E6">
-        <v>0.99687778949737549</v>
+        <v>0.99636906385421753</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -18883,16 +18883,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5005</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D7">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E7">
-        <v>0.99840521812438965</v>
+        <v>0.99814540147781372</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -18904,16 +18904,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5006</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D8">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E8">
-        <v>0.99920547008514404</v>
+        <v>0.99907600879669189</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -18925,16 +18925,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5007</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D9">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E9">
-        <v>0.99937009811401367</v>
+        <v>0.99926745891571045</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -18946,16 +18946,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5008</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D10">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E10">
-        <v>0.99983596801757813</v>
+        <v>0.99980926513671875</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -18967,16 +18967,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5009</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D11">
-        <v>650.65789794921875</v>
+        <v>756.66986083984375</v>
       </c>
       <c r="E11">
-        <v>0.99992924928665161</v>
+        <v>0.99991768598556519</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -18996,25 +18996,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5015</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5016</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5027</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5028</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5029</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5030</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5031</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -19022,16 +19022,16 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>5017</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D2">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E2">
-        <v>0.96420776844024658</v>
+        <v>0.96578752994537354</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -19043,16 +19043,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5018</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D3">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E3">
-        <v>0.97803807258605957</v>
+        <v>0.97900736331939697</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -19064,16 +19064,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5019</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D4">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E4">
-        <v>0.98353856801986694</v>
+        <v>0.98426508903503418</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -19085,16 +19085,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5020</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D5">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E5">
-        <v>0.9925047755241394</v>
+        <v>0.99283558130264282</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -19106,16 +19106,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5021</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D6">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E6">
-        <v>0.99606376886367798</v>
+        <v>0.99623751640319824</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -19127,16 +19127,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5022</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D7">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E7">
-        <v>0.99799251556396484</v>
+        <v>0.99808114767074585</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -19148,16 +19148,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5023</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D8">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E8">
-        <v>0.99900376796722412</v>
+        <v>0.99904769659042358</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -19169,16 +19169,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5024</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D9">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E9">
-        <v>0.99920499324798584</v>
+        <v>0.99924010038375854</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -19190,16 +19190,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5025</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D10">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E10">
-        <v>0.99978989362716675</v>
+        <v>0.99979919195175171</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -19211,16 +19211,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5026</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D11">
-        <v>823.5982666015625</v>
+        <v>787.24798583984375</v>
       </c>
       <c r="E11">
-        <v>0.99991017580032349</v>
+        <v>0.99991416931152344</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -19240,25 +19240,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5032</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>5033</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>5044</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>5045</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>5046</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>5047</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>5048</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -19266,16 +19266,16 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>5034</v>
+        <v>5153</v>
       </c>
       <c r="C2">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D2">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E2">
-        <v>0.96449214220046997</v>
+        <v>0.96388942003250122</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -19287,16 +19287,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5035</v>
+        <v>5162</v>
       </c>
       <c r="C3">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D3">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E3">
-        <v>0.97783678770065308</v>
+        <v>0.97746050357818604</v>
       </c>
       <c r="F3">
         <v>2514</v>
@@ -19308,16 +19308,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5036</v>
+        <v>5162</v>
       </c>
       <c r="C4">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D4">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E4">
-        <v>0.98356109857559204</v>
+        <v>0.98328202962875366</v>
       </c>
       <c r="F4">
         <v>5000</v>
@@ -19329,16 +19329,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5037</v>
+        <v>5162</v>
       </c>
       <c r="C5">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D5">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E5">
-        <v>0.99299246072769165</v>
+        <v>0.99287348985671997</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -19350,16 +19350,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5038</v>
+        <v>5162</v>
       </c>
       <c r="C6">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D6">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E6">
-        <v>0.99639958143234253</v>
+        <v>0.99633848667144775</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -19371,16 +19371,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5039</v>
+        <v>5162</v>
       </c>
       <c r="C7">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D7">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E7">
-        <v>0.99820160865783691</v>
+        <v>0.99817103147506714</v>
       </c>
       <c r="F7">
         <v>60000</v>
@@ -19392,16 +19392,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5040</v>
+        <v>5162</v>
       </c>
       <c r="C8">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D8">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E8">
-        <v>0.99912583827972412</v>
+        <v>0.99911099672317505</v>
       </c>
       <c r="F8">
         <v>120000</v>
@@ -19413,16 +19413,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5041</v>
+        <v>5162</v>
       </c>
       <c r="C9">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D9">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E9">
-        <v>0.99930745363235474</v>
+        <v>0.99929565191268921</v>
       </c>
       <c r="F9">
         <v>150000</v>
@@ -19434,16 +19434,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5042</v>
+        <v>5162</v>
       </c>
       <c r="C10">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D10">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E10">
-        <v>0.99981546401977539</v>
+        <v>0.99981236457824707</v>
       </c>
       <c r="F10">
         <v>500000</v>
@@ -19455,16 +19455,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5043</v>
+        <v>5162</v>
       </c>
       <c r="C11">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D11">
-        <v>753.85198974609375</v>
+        <v>766.649169921875</v>
       </c>
       <c r="E11">
-        <v>0.99991559982299805</v>
+        <v>0.99991416931152344</v>
       </c>
       <c r="F11">
         <v>1000000</v>
